--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43055,6 +43055,41 @@
         <v>468500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>201300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43090,6 +43090,41 @@
         <v>201300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>107300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43125,6 +43125,41 @@
         <v>107300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>107200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43160,6 +43160,41 @@
         <v>107200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>72000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43195,6 +43195,41 @@
         <v>72000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>174500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43230,6 +43230,41 @@
         <v>174500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>72800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43265,6 +43265,41 @@
         <v>72800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>165700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43300,6 +43300,41 @@
         <v>165700</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>114900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43335,6 +43335,41 @@
         <v>114900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4084600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43370,6 +43370,41 @@
         <v>4084600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>601400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43405,6 +43405,41 @@
         <v>601400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>345400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43440,6 +43440,41 @@
         <v>345400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>215500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43475,6 +43475,76 @@
         <v>215500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>217100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>424400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43545,6 +43545,76 @@
         <v>424400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>576300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>246400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,41 @@
         <v>246400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>181500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,41 @@
         <v>181500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>242800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,41 @@
         <v>242800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>102400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43720,6 +43720,41 @@
         <v>102400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>400600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,6 +43755,76 @@
         <v>400600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>347800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>146500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43825,6 +43825,41 @@
         <v>146500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>140500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43860,6 +43860,41 @@
         <v>140500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>544400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78860,6 +78860,41 @@
         <v>544400</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>560800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2241"/>
+  <dimension ref="A1:I2242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78895,6 +78895,41 @@
         <v>560800</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>968500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2242"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78930,6 +78930,41 @@
         <v>968500</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>837800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78965,6 +78965,41 @@
         <v>837800</v>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>730800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79000,6 +79000,41 @@
         <v>730800</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>1317500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79035,6 +79035,41 @@
         <v>1317500</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>1925500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79070,6 +79070,41 @@
         <v>1925500</v>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>2234800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79105,6 +79105,41 @@
         <v>2234800</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>1558100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79140,6 +79140,41 @@
         <v>1558100</v>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>1302300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79175,6 +79175,41 @@
         <v>1302300</v>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>1795900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79210,6 +79210,41 @@
         <v>1795900</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>1613600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79245,6 +79245,41 @@
         <v>1613600</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>3050900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79280,6 +79280,41 @@
         <v>3050900</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>1557600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79315,6 +79315,41 @@
         <v>1557600</v>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>1128600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7081.xlsx
+++ b/data/7081.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79350,6 +79350,41 @@
         <v>1128600</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>PHARMA</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>993100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
